--- a/AlgoList.xlsx
+++ b/AlgoList.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1F7057-88CF-48F8-9571-CF820F07A7F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -15,12 +14,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -58,6 +57,13 @@
       <name val="UD Digi Kyokasho N-B"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -147,7 +153,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -169,7 +175,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -244,23 +250,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -296,23 +285,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -488,21 +460,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AY43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AU55" sqref="AU55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BJ47" sqref="BJ47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="10.5" customHeight="1"/>
   <cols>
-    <col min="1" max="50" width="3.5703125" style="1"/>
-    <col min="51" max="51" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="16384" width="3.5703125" style="1"/>
+    <col min="1" max="50" width="3.625" style="1"/>
+    <col min="51" max="51" width="3.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:51" ht="10.5" customHeight="1">
       <c r="B2" s="4">
         <v>1</v>
       </c>
@@ -533,7 +505,7 @@
       <c r="K2" s="4">
         <v>10</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="8">
         <v>11</v>
       </c>
       <c r="M2" s="4">
@@ -569,7 +541,7 @@
       <c r="W2" s="8">
         <v>22</v>
       </c>
-      <c r="X2" s="4">
+      <c r="X2" s="8">
         <v>23</v>
       </c>
       <c r="Y2" s="4">
@@ -578,7 +550,7 @@
       <c r="Z2" s="4">
         <v>25</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AA2" s="8">
         <v>26</v>
       </c>
       <c r="AB2" s="4">
@@ -599,13 +571,13 @@
       <c r="AG2" s="4">
         <v>32</v>
       </c>
-      <c r="AH2" s="4">
+      <c r="AH2" s="8">
         <v>33</v>
       </c>
-      <c r="AI2" s="4">
+      <c r="AI2" s="8">
         <v>34</v>
       </c>
-      <c r="AJ2" s="4">
+      <c r="AJ2" s="8">
         <v>35</v>
       </c>
       <c r="AK2" s="4">
@@ -626,7 +598,7 @@
       <c r="AP2" s="4">
         <v>41</v>
       </c>
-      <c r="AQ2" s="4">
+      <c r="AQ2" s="8">
         <v>42</v>
       </c>
       <c r="AR2" s="4">
@@ -654,7 +626,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:51" ht="10.5" customHeight="1">
       <c r="B3" s="9">
         <v>51</v>
       </c>
@@ -709,7 +681,7 @@
       <c r="S3" s="4">
         <v>68</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="8">
         <v>69</v>
       </c>
       <c r="U3" s="8">
@@ -742,7 +714,7 @@
       <c r="AD3" s="4">
         <v>79</v>
       </c>
-      <c r="AE3" s="4">
+      <c r="AE3" s="8">
         <v>80</v>
       </c>
       <c r="AF3" s="4">
@@ -778,7 +750,7 @@
       <c r="AP3" s="4">
         <v>91</v>
       </c>
-      <c r="AQ3" s="4">
+      <c r="AQ3" s="8">
         <v>92</v>
       </c>
       <c r="AR3" s="4">
@@ -806,17 +778,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
+    <row r="4" spans="2:51" ht="10.5" customHeight="1">
+      <c r="B4" s="8">
         <v>101</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="8">
         <v>102</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="8">
         <v>103</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="8">
         <v>104</v>
       </c>
       <c r="F4" s="4">
@@ -885,7 +857,7 @@
       <c r="AA4" s="4">
         <v>126</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AB4" s="8">
         <v>127</v>
       </c>
       <c r="AC4" s="4">
@@ -927,7 +899,7 @@
       <c r="AO4" s="4">
         <v>140</v>
       </c>
-      <c r="AP4" s="4">
+      <c r="AP4" s="8">
         <v>141</v>
       </c>
       <c r="AQ4" s="4">
@@ -958,14 +930,14 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:51" ht="10.5" customHeight="1">
       <c r="B5" s="4">
         <v>151</v>
       </c>
       <c r="C5" s="4">
         <v>152</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="8">
         <v>153</v>
       </c>
       <c r="E5" s="4">
@@ -992,7 +964,7 @@
       <c r="L5" s="4">
         <v>161</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="8">
         <v>162</v>
       </c>
       <c r="N5" s="4">
@@ -1103,14 +1075,14 @@
       <c r="AW5" s="8">
         <v>198</v>
       </c>
-      <c r="AX5" s="4">
+      <c r="AX5" s="8">
         <v>199</v>
       </c>
       <c r="AY5" s="8">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:51" ht="10.5" customHeight="1">
       <c r="B6" s="4">
         <v>201</v>
       </c>
@@ -1126,7 +1098,7 @@
       <c r="F6" s="4">
         <v>205</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="8">
         <v>206</v>
       </c>
       <c r="H6" s="4">
@@ -1153,7 +1125,7 @@
       <c r="O6" s="4">
         <v>214</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="8">
         <v>215</v>
       </c>
       <c r="Q6" s="8">
@@ -1219,7 +1191,7 @@
       <c r="AK6" s="4">
         <v>236</v>
       </c>
-      <c r="AL6" s="4">
+      <c r="AL6" s="8">
         <v>237</v>
       </c>
       <c r="AM6" s="4">
@@ -1262,7 +1234,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:51" ht="10.5" customHeight="1">
       <c r="B7" s="4">
         <v>251</v>
       </c>
@@ -1359,7 +1331,7 @@
       <c r="AG7" s="4">
         <v>282</v>
       </c>
-      <c r="AH7" s="4">
+      <c r="AH7" s="8">
         <v>283</v>
       </c>
       <c r="AI7" s="4">
@@ -1414,7 +1386,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:51" ht="10.5" customHeight="1">
       <c r="B8" s="8">
         <v>301</v>
       </c>
@@ -1442,7 +1414,7 @@
       <c r="J8" s="4">
         <v>309</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="9">
         <v>310</v>
       </c>
       <c r="L8" s="4">
@@ -1544,7 +1516,7 @@
       <c r="AR8" s="4">
         <v>343</v>
       </c>
-      <c r="AS8" s="4">
+      <c r="AS8" s="8">
         <v>344</v>
       </c>
       <c r="AT8" s="4">
@@ -1566,7 +1538,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:51" ht="10.5" customHeight="1">
       <c r="B9" s="4">
         <v>351</v>
       </c>
@@ -1633,10 +1605,10 @@
       <c r="W9" s="4">
         <v>372</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9" s="8">
         <v>373</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9" s="8">
         <v>374</v>
       </c>
       <c r="Z9" s="4">
@@ -1718,7 +1690,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:51" ht="10.5" customHeight="1">
       <c r="B10" s="5">
         <v>401</v>
       </c>
@@ -1803,7 +1775,7 @@
       <c r="AC10" s="5">
         <v>428</v>
       </c>
-      <c r="AD10" s="5">
+      <c r="AD10" s="3">
         <v>429</v>
       </c>
       <c r="AE10" s="5">
@@ -1870,7 +1842,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:51" ht="10.5" customHeight="1">
       <c r="B11" s="5">
         <v>451</v>
       </c>
@@ -2022,7 +1994,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:51" ht="10.5" customHeight="1">
       <c r="B12" s="5">
         <v>501</v>
       </c>
@@ -2065,7 +2037,7 @@
       <c r="O12" s="5">
         <v>514</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="3">
         <v>515</v>
       </c>
       <c r="Q12" s="5">
@@ -2146,7 +2118,7 @@
       <c r="AP12" s="5">
         <v>541</v>
       </c>
-      <c r="AQ12" s="5">
+      <c r="AQ12" s="3">
         <v>542</v>
       </c>
       <c r="AR12" s="5">
@@ -2174,7 +2146,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="13" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:51" ht="10.5" customHeight="1">
       <c r="B13" s="5">
         <v>551</v>
       </c>
@@ -2326,7 +2298,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="14" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:51" ht="10.5" customHeight="1">
       <c r="B14" s="5">
         <v>601</v>
       </c>
@@ -2478,7 +2450,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="15" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:51" ht="10.5" customHeight="1">
       <c r="B15" s="5">
         <v>651</v>
       </c>
@@ -2602,7 +2574,7 @@
       <c r="AP15" s="5">
         <v>691</v>
       </c>
-      <c r="AQ15" s="5">
+      <c r="AQ15" s="3">
         <v>692</v>
       </c>
       <c r="AR15" s="5">
@@ -2630,17 +2602,17 @@
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:51" ht="10.5" customHeight="1">
       <c r="B16" s="5">
         <v>701</v>
       </c>
       <c r="C16" s="5">
         <v>702</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>703</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="3">
         <v>704</v>
       </c>
       <c r="F16" s="5">
@@ -2782,7 +2754,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="17" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:51" ht="10.5" customHeight="1">
       <c r="B17" s="5">
         <v>751</v>
       </c>
@@ -2934,7 +2906,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:51" ht="10.5" customHeight="1">
       <c r="B18" s="5">
         <v>801</v>
       </c>
@@ -3086,7 +3058,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="19" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:51" ht="10.5" customHeight="1">
       <c r="B19" s="5">
         <v>851</v>
       </c>
@@ -3238,7 +3210,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="20" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:51" ht="10.5" customHeight="1">
       <c r="B20" s="5">
         <v>901</v>
       </c>
@@ -3338,7 +3310,7 @@
       <c r="AH20" s="5">
         <v>933</v>
       </c>
-      <c r="AI20" s="5">
+      <c r="AI20" s="3">
         <v>934</v>
       </c>
       <c r="AJ20" s="5">
@@ -3390,7 +3362,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="21" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:51" ht="10.5" customHeight="1">
       <c r="B21" s="5">
         <v>951</v>
       </c>
@@ -3457,7 +3429,7 @@
       <c r="W21" s="5">
         <v>972</v>
       </c>
-      <c r="X21" s="5">
+      <c r="X21" s="3">
         <v>973</v>
       </c>
       <c r="Y21" s="5">
@@ -3542,7 +3514,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:51" ht="10.5" customHeight="1">
       <c r="B23" s="2">
         <v>1001</v>
       </c>
@@ -3694,7 +3666,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="24" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:51" ht="10.5" customHeight="1">
       <c r="B24" s="2">
         <v>1051</v>
       </c>
@@ -3728,7 +3700,7 @@
       <c r="L24" s="2">
         <v>1061</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="10">
         <v>1062</v>
       </c>
       <c r="N24" s="2">
@@ -3846,7 +3818,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="25" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:51" ht="10.5" customHeight="1">
       <c r="B25" s="2">
         <v>1101</v>
       </c>
@@ -3998,7 +3970,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="26" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:51" ht="10.5" customHeight="1">
       <c r="B26" s="2">
         <v>1151</v>
       </c>
@@ -4032,7 +4004,7 @@
       <c r="L26" s="2">
         <v>1161</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="10">
         <v>1162</v>
       </c>
       <c r="N26" s="2">
@@ -4150,7 +4122,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:51" ht="10.5" customHeight="1">
       <c r="B27" s="2">
         <v>1201</v>
       </c>
@@ -4302,7 +4274,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="28" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:51" ht="10.5" customHeight="1">
       <c r="B28" s="2">
         <v>1251</v>
       </c>
@@ -4454,7 +4426,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="29" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:51" ht="10.5" customHeight="1">
       <c r="B29" s="2">
         <v>1301</v>
       </c>
@@ -4606,7 +4578,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="30" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:51" ht="10.5" customHeight="1">
       <c r="B30" s="2">
         <v>1351</v>
       </c>
@@ -4715,7 +4687,7 @@
       <c r="AK30" s="2">
         <v>1386</v>
       </c>
-      <c r="AL30" s="2">
+      <c r="AL30" s="10">
         <v>1387</v>
       </c>
       <c r="AM30" s="2">
@@ -4758,7 +4730,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="31" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:51" ht="10.5" customHeight="1">
       <c r="B31" s="2">
         <v>1401</v>
       </c>
@@ -4910,7 +4882,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="32" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:51" ht="10.5" customHeight="1">
       <c r="B32" s="2">
         <v>1451</v>
       </c>
@@ -5062,7 +5034,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:51" ht="10.5" customHeight="1">
       <c r="B33" s="2">
         <v>1501</v>
       </c>
@@ -5214,7 +5186,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="34" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:51" ht="10.5" customHeight="1">
       <c r="B34" s="2">
         <v>1551</v>
       </c>
@@ -5366,7 +5338,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="35" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:51" ht="10.5" customHeight="1">
       <c r="B35" s="2">
         <v>1601</v>
       </c>
@@ -5518,7 +5490,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="36" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:51" ht="10.5" customHeight="1">
       <c r="B36" s="2">
         <v>1651</v>
       </c>
@@ -5670,7 +5642,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="37" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:51" ht="10.5" customHeight="1">
       <c r="B37" s="2">
         <v>1701</v>
       </c>
@@ -5822,7 +5794,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="38" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:51" ht="10.5" customHeight="1">
       <c r="B38" s="2">
         <v>1751</v>
       </c>
@@ -5974,7 +5946,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="39" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:51" ht="10.5" customHeight="1">
       <c r="B39" s="2">
         <v>1801</v>
       </c>
@@ -6126,7 +6098,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="40" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:51" ht="10.5" customHeight="1">
       <c r="B40" s="2">
         <v>1851</v>
       </c>
@@ -6278,7 +6250,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="41" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:51" ht="10.5" customHeight="1">
       <c r="B41" s="2">
         <v>1901</v>
       </c>
@@ -6430,7 +6402,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="42" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:51" ht="10.5" customHeight="1">
       <c r="B42" s="2">
         <v>1951</v>
       </c>
@@ -6582,7 +6554,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="43" spans="2:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:51" ht="10.5" customHeight="1">
       <c r="B43" s="2">
         <v>2001</v>
       </c>
@@ -6735,6 +6707,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>
